--- a/Dynamic Scheduler/DayAvailability.xlsx
+++ b/Dynamic Scheduler/DayAvailability.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bluepp-my.sharepoint.com/personal/jdr_bluepp_dk/Documents/Desktop/Dynamic Scheduler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobDrachmann\GitHub\The_dynamic_scheduler-1\Dynamic Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{E8140CAA-5FC8-4024-BDC0-D44B762BDDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A760339-6B76-4A1A-BDFF-BF7B63BD103A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5860A84-146E-4172-87E4-B03451F2DCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{B69BEB6A-A19E-4344-B92B-9230AA5800E1}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,19 +560,19 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -719,6 +719,14 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -805,31 +813,34 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -837,10 +848,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -849,22 +860,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">

--- a/Dynamic Scheduler/DayAvailability.xlsx
+++ b/Dynamic Scheduler/DayAvailability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobDrachmann\GitHub\The_dynamic_scheduler-1\Dynamic Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5860A84-146E-4172-87E4-B03451F2DCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AF8B44-76D7-4374-9FE8-D295CDC06D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{B69BEB6A-A19E-4344-B92B-9230AA5800E1}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B12" sqref="B12:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,19 +560,19 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>0</v>

--- a/Dynamic Scheduler/DayAvailability.xlsx
+++ b/Dynamic Scheduler/DayAvailability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobDrachmann\GitHub\The_dynamic_scheduler-1\Dynamic Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AF8B44-76D7-4374-9FE8-D295CDC06D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397E490E-F1BC-4650-AB72-6A1F87B236CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{B69BEB6A-A19E-4344-B92B-9230AA5800E1}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:K13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,19 +560,19 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>60</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
       </c>
       <c r="D2">
         <v>60</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>

--- a/Dynamic Scheduler/DayAvailability.xlsx
+++ b/Dynamic Scheduler/DayAvailability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobDrachmann\GitHub\The_dynamic_scheduler-1\Dynamic Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397E490E-F1BC-4650-AB72-6A1F87B236CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41539C7-1A71-40D7-A28E-EA7C7A06C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{B69BEB6A-A19E-4344-B92B-9230AA5800E1}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10060" xr2:uid="{B69BEB6A-A19E-4344-B92B-9230AA5800E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Desired volume</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Chest_fly</t>
+  </si>
+  <si>
+    <t>Workout_days_this_week</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,7 +533,7 @@
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -557,28 +560,34 @@
       <c r="G1" t="s">
         <v>20</v>
       </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>60</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>60</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">

--- a/Dynamic Scheduler/DayAvailability.xlsx
+++ b/Dynamic Scheduler/DayAvailability.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobDrachmann\GitHub\The_dynamic_scheduler-1\Dynamic Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41539C7-1A71-40D7-A28E-EA7C7A06C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB3DA65-35D9-4591-9C51-0A9F901F6387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10060" xr2:uid="{B69BEB6A-A19E-4344-B92B-9230AA5800E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B69BEB6A-A19E-4344-B92B-9230AA5800E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,31 +102,31 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>Chest_press</t>
-  </si>
-  <si>
-    <t>Tricep_ext</t>
-  </si>
-  <si>
-    <t>Leg_curls</t>
-  </si>
-  <si>
-    <t>Leg_extensions</t>
-  </si>
-  <si>
-    <t>Calf_raises</t>
-  </si>
-  <si>
-    <t>Lateral_raises</t>
-  </si>
-  <si>
-    <t>chest_supported_row</t>
-  </si>
-  <si>
-    <t>Chest_fly</t>
-  </si>
-  <si>
     <t>Workout_days_this_week</t>
+  </si>
+  <si>
+    <t>Chest_Press</t>
+  </si>
+  <si>
+    <t>Tricep_Ext</t>
+  </si>
+  <si>
+    <t>Leg_Curls</t>
+  </si>
+  <si>
+    <t>Leg_Extensions</t>
+  </si>
+  <si>
+    <t>Calf_Eaises</t>
+  </si>
+  <si>
+    <t>Lateral_Eaises</t>
+  </si>
+  <si>
+    <t>Chest_Supported_Eow</t>
+  </si>
+  <si>
+    <t>Chest_Fly</t>
   </si>
 </sst>
 </file>
@@ -523,7 +524,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,7 +562,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -664,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -673,25 +674,25 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -782,7 +783,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
